--- a/DOCUMENTOS/sprint backlog.xlsx
+++ b/DOCUMENTOS/sprint backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Documents\apli\CRIALED---APLICACIONES-INFORM-TICAS-II\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE61CA-0F45-4120-A72D-D0C1A3508DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C3718E-7B40-44BB-A39A-1AA4CE943C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB72EF4E-D9A8-4AF5-99C5-0A815083D6B5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -397,6 +397,54 @@
   </si>
   <si>
     <t xml:space="preserve">Aplicación de fuentes </t>
+  </si>
+  <si>
+    <t>Diseño de la Base de Datos </t>
+  </si>
+  <si>
+    <t>Edison Guanoluiza, Alessia Pacheco, Cristina Huisha</t>
+  </si>
+  <si>
+    <t>Diseño preliminar de la BD</t>
+  </si>
+  <si>
+    <t>Diseño en diagramas ER</t>
+  </si>
+  <si>
+    <t>Elección ORM</t>
+  </si>
+  <si>
+    <t>Cristina Huisha</t>
+  </si>
+  <si>
+    <t>Modelado de datos de los diagrams</t>
+  </si>
+  <si>
+    <t>Realización de rutas y conexiones de los modelos</t>
+  </si>
+  <si>
+    <t>Implementar lógica de negocio</t>
+  </si>
+  <si>
+    <t>Diagramado de proceso</t>
+  </si>
+  <si>
+    <t>Identificación de procesos</t>
+  </si>
+  <si>
+    <t>Diagramado de procesos mediante diagramas de actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de login </t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación de procesos de login </t>
+  </si>
+  <si>
+    <t>3 y 4</t>
   </si>
 </sst>
 </file>
@@ -871,15 +919,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41DC5D3E-AD53-4C3C-926F-C53DD7F1E223}" name="Tabla43" displayName="Tabla43" ref="A3:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H11" xr:uid="{41DC5D3E-AD53-4C3C-926F-C53DD7F1E223}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41DC5D3E-AD53-4C3C-926F-C53DD7F1E223}" name="Tabla43" displayName="Tabla43" ref="A3:H14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A3:H14" xr:uid="{41DC5D3E-AD53-4C3C-926F-C53DD7F1E223}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{572F564C-9275-4E68-A28B-292AF011917A}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C66C31D3-8DD2-4525-B7E3-CE6FFA4CFB5F}" name="Nombre" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{39A485AD-2EA4-496F-A26F-9AC942B5D274}" name="Esfuerzo realizado" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{77671698-70B4-4224-BB09-05C218E0BB3C}" name="Sprint" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{BC4684E9-BC6F-412E-943F-F181F934B44D}" name="Prioridad" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C9306C4D-FE36-472B-8857-FCDC4C54AB0E}" name="# de tareas" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{572F564C-9275-4E68-A28B-292AF011917A}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C66C31D3-8DD2-4525-B7E3-CE6FFA4CFB5F}" name="Nombre" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{39A485AD-2EA4-496F-A26F-9AC942B5D274}" name="Esfuerzo realizado" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{77671698-70B4-4224-BB09-05C218E0BB3C}" name="Sprint" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{BC4684E9-BC6F-412E-943F-F181F934B44D}" name="Prioridad" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C9306C4D-FE36-472B-8857-FCDC4C54AB0E}" name="# de tareas" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{6A8D78A1-8644-40A8-B9D2-1E790045E711}" name="Realizado por " dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{236ED818-BF20-40ED-81B0-B160D6F3A121}" name="Tareas" dataDxfId="0"/>
   </tableColumns>
@@ -888,17 +936,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8267F49B-C3F2-481F-BF44-439956270713}" name="Tabla4" displayName="Tabla4" ref="A3:H11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8267F49B-C3F2-481F-BF44-439956270713}" name="Tabla4" displayName="Tabla4" ref="A3:H11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A3:H11" xr:uid="{8267F49B-C3F2-481F-BF44-439956270713}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{37B94C9C-03E7-4E48-BA25-74D0817FC32E}" name="ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{313D82D1-3A86-4F5F-B917-D77FA2B76DA4}" name="Nombre" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{93486604-7FB3-486A-AD69-1DBCDCA59ABE}" name="Esfuerzo realizado" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A45A8F04-5780-4EB6-94AB-DF34E762C6E0}" name="Sprint" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{12B114CE-CD87-4F61-822F-67989F9E5AC3}" name="Prioridad" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{748426B9-AF19-4A57-8736-76C0E8697E96}" name="# de tareas" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D2143DA9-1B01-4B68-A500-DCAD8EB8286A}" name="Realizado por " dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{9EA48BC3-32BD-4E3F-BE7D-DC58E5F5DC65}" name="Tareas" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{37B94C9C-03E7-4E48-BA25-74D0817FC32E}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{313D82D1-3A86-4F5F-B917-D77FA2B76DA4}" name="Nombre" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{93486604-7FB3-486A-AD69-1DBCDCA59ABE}" name="Esfuerzo realizado" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A45A8F04-5780-4EB6-94AB-DF34E762C6E0}" name="Sprint" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{12B114CE-CD87-4F61-822F-67989F9E5AC3}" name="Prioridad" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{748426B9-AF19-4A57-8736-76C0E8697E96}" name="# de tareas" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D2143DA9-1B01-4B68-A500-DCAD8EB8286A}" name="Realizado por " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9EA48BC3-32BD-4E3F-BE7D-DC58E5F5DC65}" name="Tareas" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1235,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0683EBC-482A-44B8-9BDF-D410D6929DB2}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,8 +1294,8 @@
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
@@ -1303,7 +1351,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1313,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -1328,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>26</v>
@@ -1341,9 +1389,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1353,9 +1403,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1363,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1375,63 +1427,123 @@
         <v>6</v>
       </c>
       <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
+      <c r="G12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2331,14 +2443,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008E23DF2618BB5A4A94C3BFCD37DCDF89" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="019d803cbb07e626c484458c189c7014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe" xmlns:ns4="ff0d9771-d482-4f19-934a-3c905e36214b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a20de36e43a14e9bd6ea5917724c676" ns3:_="" ns4:_="">
     <xsd:import namespace="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe"/>
@@ -2579,6 +2683,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2589,23 +2701,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21959747-CAD6-4210-959B-245C749DA9CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ff0d9771-d482-4f19-934a-3c905e36214b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCA04E8-0F69-4D17-A8F2-AB974E27DFAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2624,6 +2719,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21959747-CAD6-4210-959B-245C749DA9CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ff0d9771-d482-4f19-934a-3c905e36214b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a782e3d0-5292-4b3c-a4dc-7cfca070a4fe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672D066B-7645-406D-B14D-9F5D0DDA44CB}">
   <ds:schemaRefs>
